--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:37:35+00:00</t>
+    <t>2025-09-17T08:51:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T08:51:55+00:00</t>
+    <t>2025-09-23T12:31:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:31:20+00:00</t>
+    <t>2025-09-23T14:36:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:36:30+00:00</t>
+    <t>2025-10-23T12:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3511,7 +3511,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>159</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>172</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>197</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>264</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>404</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>483</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>495</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>498</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>501</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>508</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>513</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>515</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>527</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
         <v>529</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
         <v>532</v>
       </c>
@@ -13740,7 +13740,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
         <v>536</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>542</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
         <v>544</v>
       </c>
@@ -15622,7 +15622,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>571</v>
       </c>
@@ -15858,7 +15858,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
         <v>574</v>
       </c>
@@ -16096,7 +16096,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
         <v>577</v>
       </c>
@@ -16334,7 +16334,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
         <v>583</v>
       </c>
@@ -16455,12 +16455,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO121">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-on-admission-retroactive-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:45:10+00:00</t>
+    <t>2025-10-23T14:53:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
